--- a/excelfiles/borrowerslip.xlsx
+++ b/excelfiles/borrowerslip.xlsx
@@ -1,31 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Comp Eng Docs\CPE 50\SUMEBorrower\sume-borrower-app\release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Hello Qt!</t>
+    <t>Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject: </t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <r>
+      <t>Section:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Borrower/Group:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Start Date/Time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>End Date/Time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>MECHANICAL ENGINEERING LABORATORY BORROWER SLIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mechanical Engineering Department, Charles Bachelor Building, Silliman University, Dumaguete, Negros Oriental</t>
+  </si>
+  <si>
+    <r>
+      <t>Adviser/Instructor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Instructor's Signature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -36,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -44,23 +217,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -70,44 +462,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -134,14 +526,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -168,6 +578,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -179,182 +607,596 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="1.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="6" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>